--- a/responses/s9_robot_types.xlsx
+++ b/responses/s9_robot_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au513437_uni_au_dk/Documents/PhD/papers/phd_project/urdf_files/questionnaire/responses/final/csv_completed_responses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniella\Desktop\git_repos\urdf_survey_material\responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{AE1F3DA9-77FD-4573-B697-B34F931BD806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7304E1E7-5B65-45F2-97FC-857F72A3833A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C77E5F-4A54-4A77-B749-D4BCFF41472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s9_robot_types" sheetId="1" r:id="rId1"/>
@@ -4193,7 +4193,7 @@
   <dimension ref="F1:N473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,6 +4252,10 @@
         <f>COUNTIF(G2:J500,"*Mobile manipulator*")</f>
         <v>1</v>
       </c>
+      <c r="M2">
+        <f>L2/L16*100</f>
+        <v>3.4482758620689653</v>
+      </c>
     </row>
     <row r="3" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
@@ -4262,6 +4266,10 @@
         <f>COUNTIF(G2:J500,"*Agricultural*")</f>
         <v>1</v>
       </c>
+      <c r="M3">
+        <f>L3/L16*100</f>
+        <v>3.4482758620689653</v>
+      </c>
     </row>
     <row r="4" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
@@ -4286,6 +4294,10 @@
         <f>COUNTIF(G2:J500,"*Excavator*")</f>
         <v>2</v>
       </c>
+      <c r="M5">
+        <f>L5/L16*100</f>
+        <v>6.8965517241379306</v>
+      </c>
     </row>
     <row r="6" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
@@ -4299,6 +4311,10 @@
         <f>COUNTIF(G2:J500,"*Suface water*")</f>
         <v>1</v>
       </c>
+      <c r="M7">
+        <f>L7/L16*100</f>
+        <v>3.4482758620689653</v>
+      </c>
     </row>
     <row r="8" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
@@ -4309,6 +4325,10 @@
         <f>COUNTIF(G2:J500,"*Aerial*")</f>
         <v>1</v>
       </c>
+      <c r="M8">
+        <f>L8/L16*100</f>
+        <v>3.4482758620689653</v>
+      </c>
     </row>
     <row r="9" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
@@ -4319,6 +4339,10 @@
         <f>COUNTIF(G2:J500,"*Snake*")</f>
         <v>1</v>
       </c>
+      <c r="M9">
+        <f>L9/L16*100</f>
+        <v>3.4482758620689653</v>
+      </c>
     </row>
     <row r="10" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
@@ -4331,6 +4355,10 @@
       <c r="L11">
         <f>COUNTIF(G2:J500,"*Other*")</f>
         <v>18</v>
+      </c>
+      <c r="M11">
+        <f>L11/L16*100</f>
+        <v>62.068965517241381</v>
       </c>
     </row>
     <row r="12" spans="6:14" x14ac:dyDescent="0.25">
